--- a/02_programme_task/xlsx_out/Zechariah.xlsx
+++ b/02_programme_task/xlsx_out/Zechariah.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zechariah 1:116</t>
+          <t>Zechariah 1:1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Zechariah 1:316</t>
+          <t>Zechariah 1:3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Zechariah 1:516</t>
+          <t>Zechariah 1:5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Zechariah 1:716</t>
+          <t>Zechariah 1:7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zechariah 1:816</t>
+          <t>Zechariah 1:8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Zechariah 1:916</t>
+          <t>Zechariah 1:9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Zechariah 1:1016</t>
+          <t>Zechariah 1:10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Zechariah 1:1116</t>
+          <t>Zechariah 1:11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zechariah 1:1216</t>
+          <t>Zechariah 1:12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Zechariah 1:1316</t>
+          <t>Zechariah 1:13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Zechariah 1:1416</t>
+          <t>Zechariah 1:14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Zechariah 1:1616</t>
+          <t>Zechariah 1:16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Zechariah 1:1716</t>
+          <t>Zechariah 1:17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Zechariah 1:2016</t>
+          <t>Zechariah 1:20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Zechariah 1:2116</t>
+          <t>Zechariah 1:21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Zechariah 2:116</t>
+          <t>Zechariah 2:1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Zechariah 2:216</t>
+          <t>Zechariah 2:2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Zechariah 2:316</t>
+          <t>Zechariah 2:3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Zechariah 2:416</t>
+          <t>Zechariah 2:4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Zechariah 2:516</t>
+          <t>Zechariah 2:5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Zechariah 2:616</t>
+          <t>Zechariah 2:6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Zechariah 2:816</t>
+          <t>Zechariah 2:8</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Zechariah 2:916</t>
+          <t>Zechariah 2:9</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Zechariah 2:1316</t>
+          <t>Zechariah 2:13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Zechariah 3:116</t>
+          <t>Zechariah 3:1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Zechariah 3:216</t>
+          <t>Zechariah 3:2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Zechariah 3:316</t>
+          <t>Zechariah 3:3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Zechariah 3:416</t>
+          <t>Zechariah 3:4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Zechariah 3:516</t>
+          <t>Zechariah 3:5</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Zechariah 3:616</t>
+          <t>Zechariah 3:6</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Zechariah 3:716</t>
+          <t>Zechariah 3:7</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Zechariah 3:816</t>
+          <t>Zechariah 3:8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Zechariah 3:916</t>
+          <t>Zechariah 3:9</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Zechariah 3:1016</t>
+          <t>Zechariah 3:10</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Zechariah 4:116</t>
+          <t>Zechariah 4:1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Zechariah 4:216</t>
+          <t>Zechariah 4:2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Zechariah 4:316</t>
+          <t>Zechariah 4:3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Zechariah 4:416</t>
+          <t>Zechariah 4:4</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Zechariah 4:516</t>
+          <t>Zechariah 4:5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Zechariah 4:616</t>
+          <t>Zechariah 4:6</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Zechariah 4:716</t>
+          <t>Zechariah 4:7</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Zechariah 4:816</t>
+          <t>Zechariah 4:8</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Zechariah 4:1116</t>
+          <t>Zechariah 4:11</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Zechariah 4:1216</t>
+          <t>Zechariah 4:12</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Zechariah 4:1316</t>
+          <t>Zechariah 4:13</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Zechariah 4:1416</t>
+          <t>Zechariah 4:14</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Zechariah 5:116</t>
+          <t>Zechariah 5:1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Zechariah 5:216</t>
+          <t>Zechariah 5:2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Zechariah 5:316</t>
+          <t>Zechariah 5:3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Zechariah 5:416</t>
+          <t>Zechariah 5:4</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Zechariah 5:616</t>
+          <t>Zechariah 5:6</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Zechariah 5:716</t>
+          <t>Zechariah 5:7</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Zechariah 5:816</t>
+          <t>Zechariah 5:8</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Zechariah 5:916</t>
+          <t>Zechariah 5:9</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Zechariah 5:1016</t>
+          <t>Zechariah 5:10</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Zechariah 5:1116</t>
+          <t>Zechariah 5:11</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Zechariah 6:116</t>
+          <t>Zechariah 6:1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Zechariah 6:216</t>
+          <t>Zechariah 6:2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Zechariah 6:316</t>
+          <t>Zechariah 6:3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Zechariah 6:416</t>
+          <t>Zechariah 6:4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Zechariah 6:516</t>
+          <t>Zechariah 6:5</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Zechariah 6:616</t>
+          <t>Zechariah 6:6</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Zechariah 6:716</t>
+          <t>Zechariah 6:7</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Zechariah 6:816</t>
+          <t>Zechariah 6:8</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Zechariah 6:916</t>
+          <t>Zechariah 6:9</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Zechariah 6:1016</t>
+          <t>Zechariah 6:10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Zechariah 6:1116</t>
+          <t>Zechariah 6:11</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Zechariah 6:1216</t>
+          <t>Zechariah 6:12</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Zechariah 6:1416</t>
+          <t>Zechariah 6:14</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Zechariah 7:216</t>
+          <t>Zechariah 7:2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Zechariah 7:416</t>
+          <t>Zechariah 7:4</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Zechariah 7:516</t>
+          <t>Zechariah 7:5</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Zechariah 7:816</t>
+          <t>Zechariah 7:8</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Zechariah 7:916</t>
+          <t>Zechariah 7:9</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Zechariah 7:1116</t>
+          <t>Zechariah 7:11</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Zechariah 8:116</t>
+          <t>Zechariah 8:1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Zechariah 8:216</t>
+          <t>Zechariah 8:2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Zechariah 8:316</t>
+          <t>Zechariah 8:3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Zechariah 8:416</t>
+          <t>Zechariah 8:4</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Zechariah 8:516</t>
+          <t>Zechariah 8:5</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Zechariah 8:616</t>
+          <t>Zechariah 8:6</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Zechariah 8:716</t>
+          <t>Zechariah 8:7</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Zechariah 8:816</t>
+          <t>Zechariah 8:8</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Zechariah 8:916</t>
+          <t>Zechariah 8:9</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Zechariah 8:1016</t>
+          <t>Zechariah 8:10</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Zechariah 8:1116</t>
+          <t>Zechariah 8:11</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Zechariah 8:1316</t>
+          <t>Zechariah 8:13</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Zechariah 8:1416</t>
+          <t>Zechariah 8:14</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Zechariah 8:1516</t>
+          <t>Zechariah 8:15</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Zechariah 8:1616</t>
+          <t>Zechariah 8:16</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Zechariah 8:1816</t>
+          <t>Zechariah 8:18</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Zechariah 8:1916</t>
+          <t>Zechariah 8:19</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Zechariah 8:2016</t>
+          <t>Zechariah 8:20</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Zechariah 8:2116</t>
+          <t>Zechariah 8:21</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Zechariah 8:2316</t>
+          <t>Zechariah 8:23</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Zechariah 9:116</t>
+          <t>Zechariah 9:1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Zechariah 9:216</t>
+          <t>Zechariah 9:2</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Zechariah 9:316</t>
+          <t>Zechariah 9:3</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Zechariah 9:416</t>
+          <t>Zechariah 9:4</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Zechariah 9:516</t>
+          <t>Zechariah 9:5</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Zechariah 9:616</t>
+          <t>Zechariah 9:6</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Zechariah 9:716</t>
+          <t>Zechariah 9:7</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Zechariah 9:816</t>
+          <t>Zechariah 9:8</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Zechariah 9:916</t>
+          <t>Zechariah 9:9</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Zechariah 9:1016</t>
+          <t>Zechariah 9:10</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Zechariah 9:1116</t>
+          <t>Zechariah 9:11</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Zechariah 9:1216</t>
+          <t>Zechariah 9:12</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Zechariah 9:1316</t>
+          <t>Zechariah 9:13</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Zechariah 9:1416</t>
+          <t>Zechariah 9:14</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Zechariah 9:1516</t>
+          <t>Zechariah 9:15</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Zechariah 9:1616</t>
+          <t>Zechariah 9:16</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Zechariah 9:1716</t>
+          <t>Zechariah 9:17</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Zechariah 10:116</t>
+          <t>Zechariah 10:1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Zechariah 10:216</t>
+          <t>Zechariah 10:2</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Zechariah 10:316</t>
+          <t>Zechariah 10:3</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Zechariah 10:416</t>
+          <t>Zechariah 10:4</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Zechariah 10:516</t>
+          <t>Zechariah 10:5</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Zechariah 10:616</t>
+          <t>Zechariah 10:6</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Zechariah 10:716</t>
+          <t>Zechariah 10:7</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Zechariah 10:816</t>
+          <t>Zechariah 10:8</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Zechariah 10:916</t>
+          <t>Zechariah 10:9</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Zechariah 10:1016</t>
+          <t>Zechariah 10:10</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Zechariah 10:1116</t>
+          <t>Zechariah 10:11</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Zechariah 10:1216</t>
+          <t>Zechariah 10:12</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Zechariah 11:116</t>
+          <t>Zechariah 11:1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Zechariah 11:216</t>
+          <t>Zechariah 11:2</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Zechariah 11:316</t>
+          <t>Zechariah 11:3</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Zechariah 11:416</t>
+          <t>Zechariah 11:4</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Zechariah 11:616</t>
+          <t>Zechariah 11:6</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Zechariah 11:816</t>
+          <t>Zechariah 11:8</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Zechariah 11:916</t>
+          <t>Zechariah 11:9</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Zechariah 11:1016</t>
+          <t>Zechariah 11:10</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Zechariah 11:1116</t>
+          <t>Zechariah 11:11</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Zechariah 11:1216</t>
+          <t>Zechariah 11:12</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Zechariah 11:1316</t>
+          <t>Zechariah 11:13</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Zechariah 11:1416</t>
+          <t>Zechariah 11:14</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Zechariah 11:1516</t>
+          <t>Zechariah 11:15</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Zechariah 11:1616</t>
+          <t>Zechariah 11:16</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Zechariah 11:1716</t>
+          <t>Zechariah 11:17</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Zechariah 12:216</t>
+          <t>Zechariah 12:2</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Zechariah 12:516</t>
+          <t>Zechariah 12:5</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Zechariah 12:716</t>
+          <t>Zechariah 12:7</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Zechariah 12:1016</t>
+          <t>Zechariah 12:10</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Zechariah 12:1216</t>
+          <t>Zechariah 12:12</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Zechariah 12:1316</t>
+          <t>Zechariah 12:13</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Zechariah 12:1416</t>
+          <t>Zechariah 12:14</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Zechariah 13:216</t>
+          <t>Zechariah 13:2</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Zechariah 13:316</t>
+          <t>Zechariah 13:3</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Zechariah 13:416</t>
+          <t>Zechariah 13:4</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Zechariah 13:516</t>
+          <t>Zechariah 13:5</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Zechariah 13:616</t>
+          <t>Zechariah 13:6</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Zechariah 13:716</t>
+          <t>Zechariah 13:7</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Zechariah 13:816</t>
+          <t>Zechariah 13:8</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Zechariah 13:916</t>
+          <t>Zechariah 13:9</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Zechariah 14:116</t>
+          <t>Zechariah 14:1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Zechariah 14:216</t>
+          <t>Zechariah 14:2</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Zechariah 14:516</t>
+          <t>Zechariah 14:5</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Zechariah 14:916</t>
+          <t>Zechariah 14:9</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Zechariah 14:1116</t>
+          <t>Zechariah 14:11</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Zechariah 14:1216</t>
+          <t>Zechariah 14:12</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Zechariah 14:1316</t>
+          <t>Zechariah 14:13</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Zechariah 14:1416</t>
+          <t>Zechariah 14:14</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Zechariah 14:1516</t>
+          <t>Zechariah 14:15</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Zechariah 14:1616</t>
+          <t>Zechariah 14:16</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Zechariah 14:1816</t>
+          <t>Zechariah 14:18</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Zechariah 14:1916</t>
+          <t>Zechariah 14:19</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Zechariah 14:2016</t>
+          <t>Zechariah 14:20</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Zechariah 14:2116</t>
+          <t>Zechariah 14:21</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
